--- a/test-1.xlsx
+++ b/test-1.xlsx
@@ -32,12 +32,22 @@
     </font>
     <font/>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -84,8 +94,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>

--- a/test-1.xlsx
+++ b/test-1.xlsx
@@ -71,7 +71,6 @@
       <bottom>
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="mediumDashDot">
@@ -86,7 +85,6 @@
       <bottom style="dotted">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -94,13 +92,85 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/test-1.xlsx
+++ b/test-1.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="测试表" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'测试表'!$A$1:$B$2</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -32,17 +34,12 @@
     </font>
     <font/>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -90,12 +87,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,10 +463,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -477,15 +480,27 @@
           <t>测试1</t>
         </is>
       </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>合并测试</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>测试2</t>
         </is>
       </c>
     </row>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
   </sheetData>
+  <autoFilter ref="A1:B2"/>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>